--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2580.503133763919</v>
+        <v>2665.872427568217</v>
       </c>
       <c r="AB2" t="n">
-        <v>3530.758231379568</v>
+        <v>3647.56426539005</v>
       </c>
       <c r="AC2" t="n">
-        <v>3193.787621226869</v>
+        <v>3299.445851289686</v>
       </c>
       <c r="AD2" t="n">
-        <v>2580503.133763919</v>
+        <v>2665872.427568217</v>
       </c>
       <c r="AE2" t="n">
-        <v>3530758.231379568</v>
+        <v>3647564.265390051</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.006456665359711e-06</v>
+        <v>1.862208335792913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3193787.62122687</v>
+        <v>3299445.851289686</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.368896361175</v>
+        <v>918.0660474698672</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.508877850189</v>
+        <v>1256.138468363784</v>
       </c>
       <c r="AC3" t="n">
-        <v>1075.983820034362</v>
+        <v>1136.254375944557</v>
       </c>
       <c r="AD3" t="n">
-        <v>869368.896361175</v>
+        <v>918066.0474698672</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189508.877850189</v>
+        <v>1256138.468363784</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.884389150087171e-06</v>
+        <v>3.486613287931159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.064583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1075983.820034362</v>
+        <v>1136254.375944557</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.2817218312357</v>
+        <v>690.9787834313767</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.7981872792475</v>
+        <v>945.4276553232943</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.9269216863177</v>
+        <v>855.1973668152866</v>
       </c>
       <c r="AD4" t="n">
-        <v>642281.7218312357</v>
+        <v>690978.7834313767</v>
       </c>
       <c r="AE4" t="n">
-        <v>878798.1872792474</v>
+        <v>945427.6553232943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.210732614416737e-06</v>
+        <v>4.090434138368722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.873958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>794926.9216863177</v>
+        <v>855197.3668152866</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>550.290896325141</v>
+        <v>586.792446820155</v>
       </c>
       <c r="AB5" t="n">
-        <v>752.9322814730117</v>
+        <v>802.8753131950458</v>
       </c>
       <c r="AC5" t="n">
-        <v>681.0734812763206</v>
+        <v>726.2500201462892</v>
       </c>
       <c r="AD5" t="n">
-        <v>550290.8963251411</v>
+        <v>586792.446820155</v>
       </c>
       <c r="AE5" t="n">
-        <v>752932.2814730117</v>
+        <v>802875.3131950458</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.387544540553274e-06</v>
+        <v>4.417582493634848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.364583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>681073.4812763206</v>
+        <v>726250.0201462893</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.6897108365674</v>
+        <v>541.1912613315812</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.5387277052256</v>
+        <v>740.4817594272599</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.6346807102296</v>
+        <v>669.8112195801982</v>
       </c>
       <c r="AD6" t="n">
-        <v>504689.7108365675</v>
+        <v>541191.2613315813</v>
       </c>
       <c r="AE6" t="n">
-        <v>690538.7277052256</v>
+        <v>740481.7594272599</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473616352781456e-06</v>
+        <v>4.576837881099382e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.14375</v>
       </c>
       <c r="AH6" t="n">
-        <v>624634.6807102297</v>
+        <v>669811.2195801982</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>503.4317560956907</v>
+        <v>539.9333065907045</v>
       </c>
       <c r="AB7" t="n">
-        <v>688.8175385317118</v>
+        <v>738.7605702537459</v>
       </c>
       <c r="AC7" t="n">
-        <v>623.0777594157316</v>
+        <v>668.2542982857002</v>
       </c>
       <c r="AD7" t="n">
-        <v>503431.7560956907</v>
+        <v>539933.3065907046</v>
       </c>
       <c r="AE7" t="n">
-        <v>688817.5385317118</v>
+        <v>738760.5702537459</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.480181152019199e-06</v>
+        <v>4.588984478448372e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.127083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>623077.7594157316</v>
+        <v>668254.2982857001</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1543.250763788808</v>
+        <v>1613.833036585111</v>
       </c>
       <c r="AB2" t="n">
-        <v>2111.543778434458</v>
+        <v>2208.117557944471</v>
       </c>
       <c r="AC2" t="n">
-        <v>1910.021003790979</v>
+        <v>1997.377917326707</v>
       </c>
       <c r="AD2" t="n">
-        <v>1543250.763788808</v>
+        <v>1613833.036585111</v>
       </c>
       <c r="AE2" t="n">
-        <v>2111543.778434458</v>
+        <v>2208117.557944471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.325942697465975e-06</v>
+        <v>2.527451417287089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1910021.003790979</v>
+        <v>1997377.917326707</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.5536557140896</v>
+        <v>709.4379120443664</v>
       </c>
       <c r="AB3" t="n">
-        <v>906.5351415523721</v>
+        <v>970.6842494508667</v>
       </c>
       <c r="AC3" t="n">
-        <v>820.0166999726752</v>
+        <v>878.0435070471759</v>
       </c>
       <c r="AD3" t="n">
-        <v>662553.6557140896</v>
+        <v>709437.9120443664</v>
       </c>
       <c r="AE3" t="n">
-        <v>906535.1415523721</v>
+        <v>970684.2494508667</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.141640430200279e-06</v>
+        <v>4.082297184466319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.340625</v>
       </c>
       <c r="AH3" t="n">
-        <v>820016.6999726752</v>
+        <v>878043.5070471759</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.7161071027701</v>
+        <v>541.9219921549012</v>
       </c>
       <c r="AB4" t="n">
-        <v>693.3113324749381</v>
+        <v>741.4815775772948</v>
       </c>
       <c r="AC4" t="n">
-        <v>627.1426719720959</v>
+        <v>670.7156164892474</v>
       </c>
       <c r="AD4" t="n">
-        <v>506716.1071027701</v>
+        <v>541921.9921549011</v>
       </c>
       <c r="AE4" t="n">
-        <v>693311.3324749381</v>
+        <v>741481.5775772949</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439698343641583e-06</v>
+        <v>4.650441567478156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.443750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>627142.6719720958</v>
+        <v>670715.6164892474</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.6248997160026</v>
+        <v>502.8307847681338</v>
       </c>
       <c r="AB5" t="n">
-        <v>639.8250179460078</v>
+        <v>687.9952630483647</v>
       </c>
       <c r="AC5" t="n">
-        <v>578.7610162332928</v>
+        <v>622.3339607504444</v>
       </c>
       <c r="AD5" t="n">
-        <v>467624.8997160026</v>
+        <v>502830.7847681338</v>
       </c>
       <c r="AE5" t="n">
-        <v>639825.0179460079</v>
+        <v>687995.2630483647</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526927444385418e-06</v>
+        <v>4.816713695772254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.220833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>578761.0162332929</v>
+        <v>622333.9607504443</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.6799349880532</v>
+        <v>504.8858200401843</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.6368078669851</v>
+        <v>690.8070529693418</v>
       </c>
       <c r="AC6" t="n">
-        <v>581.304452870584</v>
+        <v>624.8773973877354</v>
       </c>
       <c r="AD6" t="n">
-        <v>469679.9349880532</v>
+        <v>504885.8200401843</v>
       </c>
       <c r="AE6" t="n">
-        <v>642636.8078669851</v>
+        <v>690807.0529693419</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526625613586997e-06</v>
+        <v>4.816138359688191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.221875</v>
       </c>
       <c r="AH6" t="n">
-        <v>581304.452870584</v>
+        <v>624877.3973877354</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.1451582072164</v>
+        <v>505.8283359713877</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.0638820983257</v>
+        <v>692.0966448472826</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.4542765086173</v>
+        <v>626.0439124267991</v>
       </c>
       <c r="AD2" t="n">
-        <v>464145.1582072164</v>
+        <v>505828.3359713877</v>
       </c>
       <c r="AE2" t="n">
-        <v>635063.8820983258</v>
+        <v>692096.6448472827</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377970758913423e-06</v>
+        <v>5.064455394560377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>574454.2765086173</v>
+        <v>626043.9124267991</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.6801319798138</v>
+        <v>442.4485610900057</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.2282333346421</v>
+        <v>605.3776407362482</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.906100188341</v>
+        <v>547.601248357235</v>
       </c>
       <c r="AD3" t="n">
-        <v>400680.1319798138</v>
+        <v>442448.5610900057</v>
       </c>
       <c r="AE3" t="n">
-        <v>548228.2333346421</v>
+        <v>605377.6407362481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.541655170616833e-06</v>
+        <v>5.413060354797803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.902083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>495906.100188341</v>
+        <v>547601.248357235</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>728.5166942716115</v>
+        <v>783.2903336480417</v>
       </c>
       <c r="AB2" t="n">
-        <v>996.7886809906514</v>
+        <v>1071.732390827908</v>
       </c>
       <c r="AC2" t="n">
-        <v>901.6565682786032</v>
+        <v>969.4477556331497</v>
       </c>
       <c r="AD2" t="n">
-        <v>728516.6942716115</v>
+        <v>783290.3336480417</v>
       </c>
       <c r="AE2" t="n">
-        <v>996788.6809906514</v>
+        <v>1071732.390827908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.944668930484976e-06</v>
+        <v>3.948350262506373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>901656.5682786033</v>
+        <v>969447.7556331496</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.8434808575837</v>
+        <v>455.8442098507564</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.5531050471512</v>
+        <v>623.7061583450217</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.3368087058331</v>
+        <v>564.1805179696631</v>
       </c>
       <c r="AD3" t="n">
-        <v>422843.4808575837</v>
+        <v>455844.2098507564</v>
       </c>
       <c r="AE3" t="n">
-        <v>578553.1050471512</v>
+        <v>623706.1583450217</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.558308559034166e-06</v>
+        <v>5.194250863110033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.559375</v>
       </c>
       <c r="AH3" t="n">
-        <v>523336.8087058331</v>
+        <v>564180.5179696631</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.4507186331153</v>
+        <v>453.451447626288</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.2792222104144</v>
+        <v>620.4322755082849</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.3753806521112</v>
+        <v>561.2190899159411</v>
       </c>
       <c r="AD4" t="n">
-        <v>420450.7186331153</v>
+        <v>453451.447626288</v>
       </c>
       <c r="AE4" t="n">
-        <v>575279.2222104145</v>
+        <v>620432.2755082849</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571196763361794e-06</v>
+        <v>5.220418373755423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.527083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>520375.3806521111</v>
+        <v>561219.0899159411</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.9377586504726</v>
+        <v>441.9531196378543</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.9489736280102</v>
+        <v>604.6997558840804</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.4626154431844</v>
+        <v>546.9880598839408</v>
       </c>
       <c r="AD2" t="n">
-        <v>401937.7586504726</v>
+        <v>441953.1196378543</v>
       </c>
       <c r="AE2" t="n">
-        <v>549948.9736280103</v>
+        <v>604699.7558840804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.459228892197847e-06</v>
+        <v>5.476222396399388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>497462.6154431844</v>
+        <v>546988.0598839407</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.8300831160382</v>
+        <v>444.8454441034199</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.906379562147</v>
+        <v>608.657161818217</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.0423321092213</v>
+        <v>550.5677765499775</v>
       </c>
       <c r="AD3" t="n">
-        <v>404830.0831160382</v>
+        <v>444845.44410342</v>
       </c>
       <c r="AE3" t="n">
-        <v>553906.379562147</v>
+        <v>608657.161818217</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4622021438277e-06</v>
+        <v>5.482843247031547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.398958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>501042.3321092213</v>
+        <v>550567.7765499775</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1746.348345255763</v>
+        <v>1817.697068075886</v>
       </c>
       <c r="AB2" t="n">
-        <v>2389.430849430474</v>
+        <v>2487.053319676465</v>
       </c>
       <c r="AC2" t="n">
-        <v>2161.386922748089</v>
+        <v>2249.692441447799</v>
       </c>
       <c r="AD2" t="n">
-        <v>1746348.345255763</v>
+        <v>1817697.068075886</v>
       </c>
       <c r="AE2" t="n">
-        <v>2389430.849430474</v>
+        <v>2487053.319676464</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.242392735323736e-06</v>
+        <v>2.349071046111058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2161386.922748089</v>
+        <v>2249692.441447799</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>709.1743649228738</v>
+        <v>756.6832862332411</v>
       </c>
       <c r="AB3" t="n">
-        <v>970.3236526523622</v>
+        <v>1035.327454734891</v>
       </c>
       <c r="AC3" t="n">
-        <v>877.7173251010197</v>
+        <v>936.5172555462008</v>
       </c>
       <c r="AD3" t="n">
-        <v>709174.3649228738</v>
+        <v>756683.2862332411</v>
       </c>
       <c r="AE3" t="n">
-        <v>970323.6526523621</v>
+        <v>1035327.454734891</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.072598835453995e-06</v>
+        <v>3.918794577706397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.516666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>877717.3251010197</v>
+        <v>936517.2555462008</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.7949631578741</v>
+        <v>575.5119949952212</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.5712826656659</v>
+        <v>787.4409013497599</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.0830760393596</v>
+        <v>712.2886469051842</v>
       </c>
       <c r="AD4" t="n">
-        <v>539794.9631578741</v>
+        <v>575511.9949952213</v>
       </c>
       <c r="AE4" t="n">
-        <v>738571.2826656658</v>
+        <v>787440.9013497599</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379046736582963e-06</v>
+        <v>4.498215135486771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.547916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>668083.0760393597</v>
+        <v>712288.6469051843</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.7048014711891</v>
+        <v>515.2512411079441</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.3532724551076</v>
+        <v>704.9894793643545</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.7118373295948</v>
+        <v>637.7062729127684</v>
       </c>
       <c r="AD5" t="n">
-        <v>479704.8014711891</v>
+        <v>515251.2411079441</v>
       </c>
       <c r="AE5" t="n">
-        <v>656353.2724551075</v>
+        <v>704989.4793643544</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508116789620689e-06</v>
+        <v>4.742256102477724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.211458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>593711.8373295948</v>
+        <v>637706.2729127684</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>476.6867987731071</v>
+        <v>512.2332384098621</v>
       </c>
       <c r="AB6" t="n">
-        <v>652.2239080187095</v>
+        <v>700.8601149279564</v>
       </c>
       <c r="AC6" t="n">
-        <v>589.9765736394073</v>
+        <v>633.9710092225808</v>
       </c>
       <c r="AD6" t="n">
-        <v>476686.7987731071</v>
+        <v>512233.2384098621</v>
       </c>
       <c r="AE6" t="n">
-        <v>652223.9080187095</v>
+        <v>700860.1149279564</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515295656997063e-06</v>
+        <v>4.755829644094833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.193750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>589976.5736394073</v>
+        <v>633971.0092225808</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.5637534046507</v>
+        <v>440.7621093438459</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.4372431507301</v>
+        <v>603.0701630561522</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.9997238044376</v>
+        <v>545.5139931083622</v>
       </c>
       <c r="AD2" t="n">
-        <v>401563.7534046507</v>
+        <v>440762.1093438459</v>
       </c>
       <c r="AE2" t="n">
-        <v>549437.24315073</v>
+        <v>603070.1630561522</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376046667320841e-06</v>
+        <v>5.447245581633944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.846875</v>
       </c>
       <c r="AH2" t="n">
-        <v>496999.7238044376</v>
+        <v>545513.9931083622</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.991222709144</v>
+        <v>1133.882424696408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1473.586904410063</v>
+        <v>1551.427956831732</v>
       </c>
       <c r="AC2" t="n">
-        <v>1332.949838445375</v>
+        <v>1403.361850074524</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076991.222709144</v>
+        <v>1133882.424696408</v>
       </c>
       <c r="AE2" t="n">
-        <v>1473586.904410063</v>
+        <v>1551427.956831732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607451750305184e-06</v>
+        <v>3.150583215720773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.07604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1332949.838445375</v>
+        <v>1403361.850074524</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.657556043366</v>
+        <v>564.1533778554224</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.6501497350074</v>
+        <v>771.899540272265</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.9221354445383</v>
+        <v>698.2305315164882</v>
       </c>
       <c r="AD3" t="n">
-        <v>518657.556043366</v>
+        <v>564153.3778554223</v>
       </c>
       <c r="AE3" t="n">
-        <v>709650.1497350074</v>
+        <v>771899.540272265</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.370439343528974e-06</v>
+        <v>4.646028354001081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.832291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>641922.1354445383</v>
+        <v>698230.5315164882</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.6020524836282</v>
+        <v>476.7026731375787</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.5876544325649</v>
+        <v>652.2456280245069</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.7912186411313</v>
+        <v>589.9962207183356</v>
       </c>
       <c r="AD4" t="n">
-        <v>442602.0524836282</v>
+        <v>476702.6731375787</v>
       </c>
       <c r="AE4" t="n">
-        <v>605587.654432565</v>
+        <v>652245.628024507</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.55407259145995e-06</v>
+        <v>5.005946982146393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.341666666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>547791.2186411313</v>
+        <v>589996.2207183356</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.5582487028777</v>
+        <v>478.658869356828</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.2642084010283</v>
+        <v>654.9221819929703</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.2123260554116</v>
+        <v>592.4173281326159</v>
       </c>
       <c r="AD5" t="n">
-        <v>444558.2487028777</v>
+        <v>478658.869356828</v>
       </c>
       <c r="AE5" t="n">
-        <v>608264.2084010283</v>
+        <v>654922.1819929703</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555005529214044e-06</v>
+        <v>5.00777552725128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.339583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>550212.3260554116</v>
+        <v>592417.3281326159</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1371.141426834229</v>
+        <v>1429.370902672803</v>
       </c>
       <c r="AB2" t="n">
-        <v>1876.056190685139</v>
+        <v>1955.728328430646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1697.00802090755</v>
+        <v>1769.076361647173</v>
       </c>
       <c r="AD2" t="n">
-        <v>1371141.426834229</v>
+        <v>1429370.902672803</v>
       </c>
       <c r="AE2" t="n">
-        <v>1876056.19068514</v>
+        <v>1955728.328430646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415777910287473e-06</v>
+        <v>2.722120550458215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.209375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1697008.02090755</v>
+        <v>1769076.361647173</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.5099111159387</v>
+        <v>653.4476324225033</v>
       </c>
       <c r="AB3" t="n">
-        <v>846.2725471203055</v>
+        <v>894.075878755429</v>
       </c>
       <c r="AC3" t="n">
-        <v>765.5054829741225</v>
+        <v>808.7465317303871</v>
       </c>
       <c r="AD3" t="n">
-        <v>618509.9111159387</v>
+        <v>653447.6324225033</v>
       </c>
       <c r="AE3" t="n">
-        <v>846272.5471203055</v>
+        <v>894075.8787554291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213019468937462e-06</v>
+        <v>4.254979351765418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.170833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>765505.4829741225</v>
+        <v>808746.5317303871</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.1039913139338</v>
+        <v>510.956371765927</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.426485141418</v>
+        <v>699.1130496543437</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.2552556823345</v>
+        <v>632.3906814066602</v>
       </c>
       <c r="AD4" t="n">
-        <v>476103.9913139338</v>
+        <v>510956.3717659269</v>
       </c>
       <c r="AE4" t="n">
-        <v>651426.4851414179</v>
+        <v>699113.0496543437</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.494712501986159e-06</v>
+        <v>4.796591414371384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.361458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>589255.2556823344</v>
+        <v>632390.6814066601</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.7070811372884</v>
+        <v>493.5594615892816</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.6232651402221</v>
+        <v>675.3098296531477</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.7237815900236</v>
+        <v>610.8592073143492</v>
       </c>
       <c r="AD5" t="n">
-        <v>458707.0811372884</v>
+        <v>493559.4615892816</v>
       </c>
       <c r="AE5" t="n">
-        <v>627623.265140222</v>
+        <v>675309.8296531477</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537827227974683e-06</v>
+        <v>4.879488230876245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.253125</v>
       </c>
       <c r="AH5" t="n">
-        <v>567723.7815900235</v>
+        <v>610859.2073143492</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.7839543470041</v>
+        <v>495.6363347989972</v>
       </c>
       <c r="AB6" t="n">
-        <v>630.4649346909343</v>
+        <v>678.1514992038601</v>
       </c>
       <c r="AC6" t="n">
-        <v>570.2942461871241</v>
+        <v>613.4296719114499</v>
       </c>
       <c r="AD6" t="n">
-        <v>460783.9543470041</v>
+        <v>495636.3347989972</v>
       </c>
       <c r="AE6" t="n">
-        <v>630464.9346909344</v>
+        <v>678151.4992038601</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538131925684849e-06</v>
+        <v>4.880074074102427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.252083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>570294.2461871242</v>
+        <v>613429.6719114499</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2254.732847787518</v>
+        <v>2339.297584517084</v>
       </c>
       <c r="AB2" t="n">
-        <v>3085.024954135935</v>
+        <v>3200.730157662217</v>
       </c>
       <c r="AC2" t="n">
-        <v>2790.594502372803</v>
+        <v>2895.256963667805</v>
       </c>
       <c r="AD2" t="n">
-        <v>2254732.847787518</v>
+        <v>2339297.584517084</v>
       </c>
       <c r="AE2" t="n">
-        <v>3085024.954135935</v>
+        <v>3200730.157662217</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083174961586825e-06</v>
+        <v>2.017872798488596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2790594.502372803</v>
+        <v>2895256.963667805</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.404966772436</v>
+        <v>853.7763885299142</v>
       </c>
       <c r="AB3" t="n">
-        <v>1101.990607497461</v>
+        <v>1168.174520742562</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.8181705714347</v>
+        <v>1056.685584026128</v>
       </c>
       <c r="AD3" t="n">
-        <v>805404.9667724359</v>
+        <v>853776.3885299142</v>
       </c>
       <c r="AE3" t="n">
-        <v>1101990.607497462</v>
+        <v>1168174.520742561</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.945185771364447e-06</v>
+        <v>3.623733556666733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.873958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>996818.1705714348</v>
+        <v>1056685.584026128</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>609.4778593760359</v>
+        <v>657.7639402789423</v>
       </c>
       <c r="AB4" t="n">
-        <v>833.9144954637702</v>
+        <v>899.9816415866719</v>
       </c>
       <c r="AC4" t="n">
-        <v>754.3268664230525</v>
+        <v>814.0886568458064</v>
       </c>
       <c r="AD4" t="n">
-        <v>609477.8593760359</v>
+        <v>657763.9402789423</v>
       </c>
       <c r="AE4" t="n">
-        <v>833914.4954637702</v>
+        <v>899981.6415866719</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.261785783894509e-06</v>
+        <v>4.213535367031374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.772916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>754326.8664230525</v>
+        <v>814088.6568458064</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.7655002079217</v>
+        <v>552.9588151800098</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.0613554693405</v>
+        <v>756.5826457505159</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.580412070191</v>
+        <v>684.3754599104982</v>
       </c>
       <c r="AD5" t="n">
-        <v>516765.5002079217</v>
+        <v>552958.8151800098</v>
       </c>
       <c r="AE5" t="n">
-        <v>707061.3554693405</v>
+        <v>756582.6457505159</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.439569999012412e-06</v>
+        <v>4.544733875499024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.279166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>639580.412070191</v>
+        <v>684375.4599104982</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>493.7581468367784</v>
+        <v>529.9514618088664</v>
       </c>
       <c r="AB6" t="n">
-        <v>675.5816795741474</v>
+        <v>725.1029698553227</v>
       </c>
       <c r="AC6" t="n">
-        <v>611.1051122604324</v>
+        <v>655.9001601007399</v>
       </c>
       <c r="AD6" t="n">
-        <v>493758.1468367784</v>
+        <v>529951.4618088664</v>
       </c>
       <c r="AE6" t="n">
-        <v>675581.6795741474</v>
+        <v>725102.9698553227</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489567214182045e-06</v>
+        <v>4.637874895250059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.153125</v>
       </c>
       <c r="AH6" t="n">
-        <v>611105.1122604324</v>
+        <v>655900.1601007399</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.8572414842066</v>
+        <v>532.0505564562947</v>
       </c>
       <c r="AB7" t="n">
-        <v>678.4537534762788</v>
+        <v>727.9750437574543</v>
       </c>
       <c r="AC7" t="n">
-        <v>613.7030794603255</v>
+        <v>658.4981273006329</v>
       </c>
       <c r="AD7" t="n">
-        <v>495857.2414842066</v>
+        <v>532050.5564562946</v>
       </c>
       <c r="AE7" t="n">
-        <v>678453.7534762789</v>
+        <v>727975.0437574543</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.488831961017786e-06</v>
+        <v>4.636505174371367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.155208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>613703.0794603255</v>
+        <v>658498.1273006329</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.5440317424159</v>
+        <v>882.0260552074033</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.964694064866</v>
+        <v>1206.826960978037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.595432034864</v>
+        <v>1091.64908961457</v>
       </c>
       <c r="AD2" t="n">
-        <v>837544.0317424159</v>
+        <v>882026.0552074033</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145964.694064866</v>
+        <v>1206826.960978037</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.824719755907128e-06</v>
+        <v>3.657645924267049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.082291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036595.432034864</v>
+        <v>1091649.08961457</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.5670567650434</v>
+        <v>476.0138480869421</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.5397717464949</v>
+        <v>651.3031472014097</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.7479058114161</v>
+        <v>589.1436889422146</v>
       </c>
       <c r="AD3" t="n">
-        <v>442567.0567650434</v>
+        <v>476013.8480869421</v>
       </c>
       <c r="AE3" t="n">
-        <v>605539.7717464949</v>
+        <v>651303.1472014097</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523108572684136e-06</v>
+        <v>5.057564460233252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>547747.9058114161</v>
+        <v>589143.6889422146</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.2264622675341</v>
+        <v>460.5026613888407</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.5500935757383</v>
+        <v>630.080057255806</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.7614530660782</v>
+        <v>569.9461009142254</v>
       </c>
       <c r="AD4" t="n">
-        <v>427226.4622675342</v>
+        <v>460502.6613888407</v>
       </c>
       <c r="AE4" t="n">
-        <v>584550.0935757383</v>
+        <v>630080.0572558059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.568607251863686e-06</v>
+        <v>5.148766442303033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.451041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>528761.4530660781</v>
+        <v>569946.1009142254</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.9602316611221</v>
+        <v>583.5412276886103</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.1656544398279</v>
+        <v>798.4268517456011</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.5252832091104</v>
+        <v>722.2261136141249</v>
       </c>
       <c r="AD2" t="n">
-        <v>540960.2316611221</v>
+        <v>583541.2276886103</v>
       </c>
       <c r="AE2" t="n">
-        <v>740165.6544398279</v>
+        <v>798426.851745601</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.224063430340358e-06</v>
+        <v>4.652879784566097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.761458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>669525.2832091104</v>
+        <v>722226.1136141248</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.8007379613621</v>
+        <v>447.2963931342787</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.8662282269023</v>
+        <v>612.010658410478</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.0060127610597</v>
+        <v>553.601220134135</v>
       </c>
       <c r="AD3" t="n">
-        <v>404800.7379613621</v>
+        <v>447296.3931342787</v>
       </c>
       <c r="AE3" t="n">
-        <v>553866.2282269023</v>
+        <v>612010.6584104779</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.561128106393728e-06</v>
+        <v>5.358040166192462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>501006.0127610596</v>
+        <v>553601.220134135</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.4047838567284</v>
+        <v>446.2010289739615</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.3751516384306</v>
+        <v>610.5119328422757</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.1302248855934</v>
+        <v>552.2455308306875</v>
       </c>
       <c r="AD2" t="n">
-        <v>415404.7838567285</v>
+        <v>446201.0289739615</v>
       </c>
       <c r="AE2" t="n">
-        <v>568375.1516384305</v>
+        <v>610511.9328422757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.474515890859381e-06</v>
+        <v>5.379240646947063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.215624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>514130.2248855935</v>
+        <v>552245.5308306875</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.1241636974752</v>
+        <v>437.9204088147082</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.0452418213615</v>
+        <v>599.1820230252067</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.8816257598372</v>
+        <v>541.9969317049312</v>
       </c>
       <c r="AD3" t="n">
-        <v>407124.1636974752</v>
+        <v>437920.4088147082</v>
       </c>
       <c r="AE3" t="n">
-        <v>557045.2418213615</v>
+        <v>599182.0230252068</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510515082898208e-06</v>
+        <v>5.457497698270851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>503881.6257598372</v>
+        <v>541996.9317049312</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.0238316304847</v>
+        <v>467.500377481116</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.6951365804898</v>
+        <v>639.6546411307028</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.8470393349372</v>
+        <v>578.6068999421151</v>
       </c>
       <c r="AD2" t="n">
-        <v>420023.8316304847</v>
+        <v>467500.377481116</v>
       </c>
       <c r="AE2" t="n">
-        <v>574695.1365804898</v>
+        <v>639654.6411307028</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222243566734701e-06</v>
+        <v>5.285666242994159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.623958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>519847.0393349372</v>
+        <v>578606.8999421151</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1210.096671391596</v>
+        <v>1279.150868343946</v>
       </c>
       <c r="AB2" t="n">
-        <v>1655.70765149535</v>
+        <v>1750.190650221717</v>
       </c>
       <c r="AC2" t="n">
-        <v>1497.689237036917</v>
+        <v>1583.15491097256</v>
       </c>
       <c r="AD2" t="n">
-        <v>1210096.671391596</v>
+        <v>1279150.868343946</v>
       </c>
       <c r="AE2" t="n">
-        <v>1655707.65149535</v>
+        <v>1750190.650221717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50884662023576e-06</v>
+        <v>2.928034850811413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.621875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1497689.237036917</v>
+        <v>1583154.91097256</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.9632393550946</v>
+        <v>607.9709237051375</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.9028961540254</v>
+        <v>831.8526395975369</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.519882907077</v>
+        <v>752.4617911868596</v>
       </c>
       <c r="AD3" t="n">
-        <v>561963.2393550946</v>
+        <v>607970.9237051375</v>
       </c>
       <c r="AE3" t="n">
-        <v>768902.8961540253</v>
+        <v>831852.639597537</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290197133957684e-06</v>
+        <v>4.44430662038314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.997916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>695519.882907077</v>
+        <v>752461.7911868596</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.4485922070759</v>
+        <v>489.933109764516</v>
       </c>
       <c r="AB4" t="n">
-        <v>623.1648568315194</v>
+        <v>670.3480951031522</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.6908775128881</v>
+        <v>606.371013745967</v>
       </c>
       <c r="AD4" t="n">
-        <v>455448.5922070759</v>
+        <v>489933.109764516</v>
       </c>
       <c r="AE4" t="n">
-        <v>623164.8568315194</v>
+        <v>670348.0951031522</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532849705863843e-06</v>
+        <v>4.915192910382079e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>563690.8775128881</v>
+        <v>606371.0137459671</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.4024384547922</v>
+        <v>485.8869560122322</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.6287307639393</v>
+        <v>664.811969035572</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.6831115471962</v>
+        <v>601.3632477802752</v>
       </c>
       <c r="AD5" t="n">
-        <v>451402.4384547921</v>
+        <v>485886.9560122322</v>
       </c>
       <c r="AE5" t="n">
-        <v>617628.7307639393</v>
+        <v>664811.969035572</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.546390242533305e-06</v>
+        <v>4.941469380591278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.29375</v>
       </c>
       <c r="AH5" t="n">
-        <v>558683.1115471962</v>
+        <v>601363.2477802752</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1987.273694605195</v>
+        <v>2071.010917333474</v>
       </c>
       <c r="AB2" t="n">
-        <v>2719.075541286631</v>
+        <v>2833.648503649004</v>
       </c>
       <c r="AC2" t="n">
-        <v>2459.570787872725</v>
+        <v>2563.209067511395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1987273.694605194</v>
+        <v>2071010.917333474</v>
       </c>
       <c r="AE2" t="n">
-        <v>2719075.541286631</v>
+        <v>2833648.503649004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159649178039943e-06</v>
+        <v>2.175956706323675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.31979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2459570.787872725</v>
+        <v>2563209.067511396</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>757.3606416913727</v>
+        <v>805.3079645078706</v>
       </c>
       <c r="AB3" t="n">
-        <v>1036.25424235552</v>
+        <v>1101.857884719646</v>
       </c>
       <c r="AC3" t="n">
-        <v>937.3555918570721</v>
+        <v>996.6981146692559</v>
       </c>
       <c r="AD3" t="n">
-        <v>757360.6416913727</v>
+        <v>805307.9645078706</v>
       </c>
       <c r="AE3" t="n">
-        <v>1036254.24235552</v>
+        <v>1101857.884719646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.006440695209885e-06</v>
+        <v>3.764869728931335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>937355.5918570721</v>
+        <v>996698.1146692559</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.286383097205</v>
+        <v>620.1483650591313</v>
       </c>
       <c r="AB4" t="n">
-        <v>783.0274768469401</v>
+        <v>848.5143520888682</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.2964334426335</v>
+        <v>767.5333332228786</v>
       </c>
       <c r="AD4" t="n">
-        <v>572286.383097205</v>
+        <v>620148.3650591313</v>
       </c>
       <c r="AE4" t="n">
-        <v>783027.4768469401</v>
+        <v>848514.3520888683</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.323301747948839e-06</v>
+        <v>4.359425346040872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.647916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>708296.4334426336</v>
+        <v>767533.3332228786</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.2683099459925</v>
+        <v>533.1435507123452</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.3844395976414</v>
+        <v>729.4705267180863</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.4495036080001</v>
+        <v>659.8508834664257</v>
       </c>
       <c r="AD5" t="n">
-        <v>497268.3099459925</v>
+        <v>533143.5507123453</v>
       </c>
       <c r="AE5" t="n">
-        <v>680384.4395976414</v>
+        <v>729470.5267180862</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>4.647382792792567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.236458333333332</v>
       </c>
       <c r="AH5" t="n">
-        <v>615449.5036080001</v>
+        <v>659850.8834664257</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>483.6992139407358</v>
+        <v>519.5744547070886</v>
       </c>
       <c r="AB6" t="n">
-        <v>661.8186038169823</v>
+        <v>710.9046909374272</v>
       </c>
       <c r="AC6" t="n">
-        <v>598.6555651369331</v>
+        <v>643.0569449953587</v>
       </c>
       <c r="AD6" t="n">
-        <v>483699.2139407358</v>
+        <v>519574.4547070886</v>
       </c>
       <c r="AE6" t="n">
-        <v>661818.6038169824</v>
+        <v>710904.6909374272</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.505530214872645e-06</v>
+        <v>4.701357425323803e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.164583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>598655.5651369331</v>
+        <v>643056.9449953587</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>485.8715806689144</v>
+        <v>521.7468214352672</v>
       </c>
       <c r="AB7" t="n">
-        <v>664.7909318125322</v>
+        <v>713.8770189329773</v>
       </c>
       <c r="AC7" t="n">
-        <v>601.3442183202764</v>
+        <v>645.7455981787019</v>
       </c>
       <c r="AD7" t="n">
-        <v>485871.5806689144</v>
+        <v>521746.8214352672</v>
       </c>
       <c r="AE7" t="n">
-        <v>664790.9318125322</v>
+        <v>713877.0189329773</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.505381941099721e-06</v>
+        <v>4.701079205568487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.164583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>601344.2183202764</v>
+        <v>645745.5981787019</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.2122189207744</v>
+        <v>507.9279323909208</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.4191492913531</v>
+        <v>694.9694052961445</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.0619532888363</v>
+        <v>628.6425006503661</v>
       </c>
       <c r="AD2" t="n">
-        <v>462212.2189207744</v>
+        <v>507927.9323909208</v>
       </c>
       <c r="AE2" t="n">
-        <v>632419.1492913531</v>
+        <v>694969.4052961445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932856972014236e-06</v>
+        <v>4.833928603397222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>572061.9532888363</v>
+        <v>628642.5006503661</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.3682990392695</v>
+        <v>679.5388355906206</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.7071813334778</v>
+        <v>929.7750139926926</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.6081099922143</v>
+        <v>841.0385916046572</v>
       </c>
       <c r="AD2" t="n">
-        <v>636368.2990392694</v>
+        <v>679538.8355906205</v>
       </c>
       <c r="AE2" t="n">
-        <v>870707.1813334778</v>
+        <v>929775.0139926926</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079295648765375e-06</v>
+        <v>4.281859134041696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.18125</v>
       </c>
       <c r="AH2" t="n">
-        <v>787608.1099922142</v>
+        <v>841038.5916046572</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.6483205823775</v>
+        <v>455.8187676251775</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.6036369798866</v>
+        <v>623.671347169553</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.7186582927068</v>
+        <v>564.1490291239234</v>
       </c>
       <c r="AD3" t="n">
-        <v>412648.3205823775</v>
+        <v>455818.7676251775</v>
       </c>
       <c r="AE3" t="n">
-        <v>564603.6369798866</v>
+        <v>623671.3471695529</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.566582086833063e-06</v>
+        <v>5.285320035320297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.627083333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>510718.6582927068</v>
+        <v>564149.0291239234</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.1572136735151</v>
+        <v>457.3276607163152</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.6681710748461</v>
+        <v>625.7358812645124</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.5861561512352</v>
+        <v>566.0165269824518</v>
       </c>
       <c r="AD4" t="n">
-        <v>414157.2136735151</v>
+        <v>457327.6607163151</v>
       </c>
       <c r="AE4" t="n">
-        <v>566668.1710748461</v>
+        <v>625735.8812645124</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.5701746812156e-06</v>
+        <v>5.292718205503986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>512586.1561512352</v>
+        <v>566016.5269824518</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>946.901458779872</v>
+        <v>1003.20799542374</v>
       </c>
       <c r="AB2" t="n">
-        <v>1295.592350246697</v>
+        <v>1372.633437751917</v>
       </c>
       <c r="AC2" t="n">
-        <v>1171.942834714436</v>
+        <v>1241.631228956003</v>
       </c>
       <c r="AD2" t="n">
-        <v>946901.4587798719</v>
+        <v>1003207.99542374</v>
       </c>
       <c r="AE2" t="n">
-        <v>1295592.350246697</v>
+        <v>1372633.437751917</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.711368564046739e-06</v>
+        <v>3.390536208493992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.569791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1171942.834714436</v>
+        <v>1241631.228956003</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.0800326325459</v>
+        <v>523.0399210930685</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.1301920503334</v>
+        <v>715.6462949323117</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.7009245985396</v>
+        <v>647.3460169598544</v>
       </c>
       <c r="AD3" t="n">
-        <v>478080.0326325459</v>
+        <v>523039.9210930686</v>
       </c>
       <c r="AE3" t="n">
-        <v>654130.1920503335</v>
+        <v>715646.2949323116</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.450472249814651e-06</v>
+        <v>4.854836687697507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.683333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591700.9245985396</v>
+        <v>647346.0169598544</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.0059443575518</v>
+        <v>468.7046149978519</v>
       </c>
       <c r="AB4" t="n">
-        <v>595.1943241778279</v>
+        <v>641.3023320283105</v>
       </c>
       <c r="AC4" t="n">
-        <v>538.3898132387758</v>
+        <v>580.0973375330037</v>
       </c>
       <c r="AD4" t="n">
-        <v>435005.9443575518</v>
+        <v>468704.6149978519</v>
       </c>
       <c r="AE4" t="n">
-        <v>595194.3241778279</v>
+        <v>641302.3320283105</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.560685328675172e-06</v>
+        <v>5.073189088446638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>538389.8132387758</v>
+        <v>580097.3375330038</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.0965156752874</v>
+        <v>469.7951863155876</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.6864919673648</v>
+        <v>642.7944998178474</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.73957062875</v>
+        <v>581.447094922978</v>
       </c>
       <c r="AD5" t="n">
-        <v>436096.5156752875</v>
+        <v>469795.1863155875</v>
       </c>
       <c r="AE5" t="n">
-        <v>596686.4919673648</v>
+        <v>642794.4998178474</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.564301449664889e-06</v>
+        <v>5.080353289897751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.386458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>539739.57062875</v>
+        <v>581447.094922978</v>
       </c>
     </row>
   </sheetData>
